--- a/02_programme_task/xlsx_out/58.Hebrews.xlsx
+++ b/02_programme_task/xlsx_out/58.Hebrews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,3283 +453,3679 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Long ago, at many times and in many ways, God spoke to our fathers by the prophets, 2</t>
+          <t>The Letter to the Hebrews The Supremacy of God s Son</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hebrews 1:2</t>
+          <t>Hebrews 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>but in these last days he has spoken to us by his Son, whom he appointed the heir of all things, through whom also he created the world. 3</t>
+          <t>Long ago, at many times and a in many ways, God spoke to our fathers by the prophets,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hebrews 1:3</t>
+          <t>Hebrews 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>He is the radiance of the glory of God and the exact imprint of his nature, and he upholds the universe by the word of his power. After making purification for sins, he sat down at the right hand of the Majesty on high, 4</t>
+          <t>but b in these last days c he has spoken to us by d his Son, whom he appointed e the heir of all things, f through whom also he created g the world.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hebrews 1:4</t>
+          <t>Hebrews 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>having become as much superior to angels as the name he has inherited is more excellent than theirs. 5</t>
+          <t>He is the radiance of the glory of God and h the exact imprint of his nature, and he upholds the universe by the word of his power. i After making purification for sins, j he sat down k at the right hand of the Majesty on high,</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hebrews 1:5</t>
+          <t>Hebrews 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For to which of the angels did God ever say, - You are my Son, - today I have begotten you Or again, - I will be to him a father, - and he shall be to me a son 6</t>
+          <t>having become as much superior to angels as the name l he has inherited is more excellent than theirs.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hebrews 1:6</t>
+          <t>Hebrews 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>And again, when he brings the firstborn into the world, he says, - Let all God's angels worship him. 7</t>
+          <t>For to which of the angels did God ever say, m You are my Son, today I have begotten you? Or again, n I will be to him a father, and he shall be to me a son?</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hebrews 1:7</t>
+          <t>Hebrews 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Of the angels he says, - He makes his angels winds, - and his ministers a flame of fire. 8</t>
+          <t>And again, when he brings o the firstborn into the world, he says, p Let all God s angels worship him.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hebrews 1:8</t>
+          <t>Hebrews 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>But of the Son he says, - Your throne, O God, is forever and ever, - the scepter of uprightness is the scepter of your kingdom. -</t>
+          <t>Of the angels he says, q He makes his angels winds, and his ministers a flame of fire.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hebrews 1:9</t>
+          <t>Hebrews 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>You have loved righteousness and hated wickedness; - therefore God, your God, has anointed you - with the oil of gladness beyond your companions.</t>
+          <t>But of the Son he says, r Your throne, O God, is forever and ever, the scepter of uprightness is the scepter of your kingdom.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hebrews 1:10</t>
+          <t>Hebrews 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>And, - You, Lord, laid the foundation of the earth in the beginning, - and the heavens are the work of your hands; -</t>
+          <t>You have loved righteousness and hated wickedness; therefore God, your God, s has anointed you with t the oil of gladness beyond your companions.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hebrews 1:11</t>
+          <t>Hebrews 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>they will perish, but you remain; - they will all wear out like a garment, -</t>
+          <t>And, u You, Lord, laid the foundation of the earth in the beginning, and the heavens are the work of your hands;</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hebrews 1:12</t>
+          <t>Hebrews 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>like a robe you will roll them up, - like a garment they will be changed. - But you are the same, - and your years will have no end.</t>
+          <t>they will perish, but you remain; they will all wear out like a garment,</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hebrews 1:13</t>
+          <t>Hebrews 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>And to which of the angels has he ever said, - Sit at my right hand - until I make your enemies a footstool for your feet</t>
+          <t>like a robe you will roll them up, like a garment they will be changed. But you are v the same, and your years will have no end.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hebrews 1:14</t>
+          <t>Hebrews 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Are they not all ministering spirits sent out to serve for the sake of those who are to inherit salvation Warning Against Neglecting Salvation 2</t>
+          <t>And to which of the angels has he ever said, w Sit at my right hand x until I make your enemies a footstool for your feet?</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hebrews 2:1</t>
+          <t>Hebrews 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Therefore we must pay much closer attention to what we have heard, lest we drift away from it. 2</t>
+          <t>Are they not all ministering spirits y sent out to serve for the sake of those who are to z inherit salvation? Warning Against Neglecting Salvation</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hebrews 2:2</t>
+          <t>Hebrews 2:1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>For since the message declared by angels proved to be reliable, and every transgression or disobedience received a just retribution, 3</t>
+          <t>Therefore we must pay much closer attention to what we have heard, lest we drift away from it.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hebrews 2:5</t>
+          <t>Hebrews 2:2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>For it was not to angels that God subjected the world to come, of which we are speaking. 6</t>
+          <t>For since a the message declared by angels proved to be reliable, and b every transgression or disobedience received a just c retribution,</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hebrews 2:6</t>
+          <t>Hebrews 2:3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>It has been testified somewhere, - What is man, that you are mindful of him, - or the son of man, that you care for him -</t>
+          <t>d how shall we escape if we e neglect such a great salvation? It was f declared at first by the Lord, and it was g attested to us h by those who heard,</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hebrews 2:7</t>
+          <t>Hebrews 2:4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>You made him for a little while lower than the angels; - you have crowned him with glory and honor, -</t>
+          <t>g while God also bore witness i by signs and wonders and various miracles and by j gifts of the Holy Spirit k distributed according to his will. The Founder of Salvation</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hebrews 2:8</t>
+          <t>Hebrews 2:5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>putting everything in subjection under his feet. Now in putting everything in subjection to him, he left nothing outside his control. At pres173 ent, we do not yet see everything in subjection to him. 9</t>
+          <t>For it was not to angels that God subjected the world l to come, of which we are speaking.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hebrews 2:9</t>
+          <t>Hebrews 2:6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>But we see him who for a little while was made lower than the angels, namely Jesus, crowned with glory and honor because of the suffering of death, so that by the grace of God he might taste death for everyone.</t>
+          <t>It has been testified somewhere, m What is man, that you are mindful of him, or the son of man, that you care for him?</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hebrews 2:10</t>
+          <t>Hebrews 2:7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>For it was fitting that he, for whom and by whom all things exist, in bringing many sons to glory, should make the founder of their salvation perfect through suffering.</t>
+          <t>You made him for a little while lower than the angels; you have crowned him with glory and honor,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hebrews 2:11</t>
+          <t>Hebrews 2:8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>For he who sanctifies and those who are sanctified all have one source. That is why he is not ashamed to call them brothers,</t>
+          <t>putting everything in subjection under his feet. Now in putting everything in subjection to him, he left nothing outside his control. At pres?ent, n we do not yet see everything in subjection to him.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hebrews 2:12</t>
+          <t>Hebrews 2:9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>saying, - I will tell of your name to my brothers; - in the midst of the congregation I will sing your praise.</t>
+          <t>But we see him o who for a little while was made lower than the angels, namely Jesus, p crowned with glory and honor q because of the suffering of death, so that by the grace of God he might r taste death s for everyone.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hebrews 2:13</t>
+          <t>Hebrews 2:10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>And again, - I will put my trust in him. And again, - Behold, I nd the children God has given me.</t>
+          <t>For it t was fitting that he, u for whom and by whom all things exist, in bringing many sons v to glory, should make the w founder of their salvation x perfect through suffering.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hebrews 2:14</t>
+          <t>Hebrews 2:11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Since therefore the children share in flesh and blood, he himself likewise partook of the same things, that through death he might destroy the one who has the power of death, that is, the devil,</t>
+          <t>For y he who sanctifies and z those who are sanctified a all have one source. That is why he is not ashamed to call them b brothers,</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hebrews 2:15</t>
+          <t>Hebrews 2:12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>and deliver all those who through fear of death were subject to lifelong slavery.</t>
+          <t>saying, c I will tell of your name to my brothers; in the midst of the d congregation I will sing your praise.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hebrews 2:16</t>
+          <t>Hebrews 2:13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>For surely it is not angels that he helps, but he helps the offspring of Abraham.</t>
+          <t>And again, e I will put my trust in him. And again, f Behold, I and the children g God has given me.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hebrews 2:17</t>
+          <t>Hebrews 2:14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Therefore he had to be made like his brothers in every respect, so that he might become a merciful and faithful high priest in the service of God, to make propitiation for the sins of the people.</t>
+          <t>Since therefore the children share in flesh and blood, he himself likewise h partook of the same things, that i through death he might j destroy k the one who has the power of death, that is, the devil,</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hebrews 2:18</t>
+          <t>Hebrews 2:15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>For because he himself has suffered when tempted, he is able to help those who are being tempted. Jesus Greater Than Moses 3</t>
+          <t>and deliver all those who l through fear of death were subject to lifelong slavery.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hebrews 3:1</t>
+          <t>Hebrews 2:16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Therefore, holy brothers, you who share in a heavenly calling, consider Jesus, the apostle and high priest of our confession, 2</t>
+          <t>For surely it is not angels that he helps, but he m helps the offspring of Abraham.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hebrews 3:2</t>
+          <t>Hebrews 2:17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>who was faithful to him who appointed him, just as Moses also was faithful in all God's house. 3</t>
+          <t>Therefore he had n to be made like his brothers in every respect, o so that he might become a merciful and faithful high priest p in the service of God, to make propitiation for the sins of the people.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hebrews 3:3</t>
+          <t>Hebrews 2:18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>For Jesus has been counted worthy of more glory than Mose16's as much more glory as the builder of a house has more honor than the house itself. 4</t>
+          <t>For because he himself has suffered q when tempted, he is able to help those who are being tempted. Jesus Greater Than Moses</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hebrews 3:4</t>
+          <t>Hebrews 3:1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(For every house is built by someone, but the builder of all things is God.) 5</t>
+          <t>Therefore, holy brothers, you who share in r a heavenly calling, consider Jesus, s the apostle and high priest of our confession,</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hebrews 3:6</t>
+          <t>Hebrews 3:2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>but Christ is faithful over God's house as a son. And we are his house, if indeed we hold fast our confidence and our boasting in our hope. A Rest for the People of God 7</t>
+          <t>who was faithful to him who appointed him, t just as Moses also was faithful in all God s house.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hebrews 3:7</t>
+          <t>Hebrews 3:3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Therefore, as the Holy Spirit says, - Today, if you hear his voice, -</t>
+          <t>For Jesus has been counted worthy of more glory than Mose s as much more glory as the builder of a house has more honor than the house itself.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hebrews 3:8</t>
+          <t>Hebrews 3:4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>do not harden your hearts as in the rebellion, - on the day of testing in the wilderness, -</t>
+          <t>v Now Moses was faithful in all God s house w as a servant, x to testify to the things that were to be spoken later,</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hebrews 3:9</t>
+          <t>Hebrews 3:6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>where your fathers put me to the test - and saw my works for forty years. -</t>
+          <t>but Christ is faithful over God s house as y a son. And z we are his house, if indeed we a hold fast our confidence and our boasting in our hope. A Rest for the People of God</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hebrews 3:10</t>
+          <t>Hebrews 3:7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Therefore I was provoked with that generation, and said, They always go astray in their heart; - they have not known my ways. -</t>
+          <t>Therefore, as the Holy Spirit says, b Today, if you hear his voice,</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hebrews 3:11</t>
+          <t>Hebrews 3:8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>As I swore in my wrath, - They shall not enter my rest.</t>
+          <t>do not harden your hearts as in the rebellion, on the day of testing in the wilderness,</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Hebrews 3:12</t>
+          <t>Hebrews 3:9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Take care, brothers, lest there be in any of you an evil, unbelieving heart, leading you to fall away from the living God.</t>
+          <t>where your fathers put me to the test and saw my works for c forty years.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hebrews 3:13</t>
+          <t>Hebrews 3:10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>But exhort one another every day, as long as it is called today, that none of you may be hardened by the deceitfulness of sin.</t>
+          <t>Therefore I was provoked with that generation, and said, They always go astray in their heart; they have not known my ways.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hebrews 3:14</t>
+          <t>Hebrews 3:11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>For we have come to share in Christ, if indeed we hold our original confidence firm to the end.</t>
+          <t>d As I swore in my wrath, They shall not enter my rest.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hebrews 3:15</t>
+          <t>Hebrews 3:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>As it is said, - Today, if you hear his voice, - do not harden your hearts as in the rebellion.</t>
+          <t>Take care, brothers, lest there be in any of you an evil, unbelieving heart, leading you to fall away from e the living God.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hebrews 3:16</t>
+          <t>Hebrews 3:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>For who were those who heard and yet rebelled Was it not all those who left Egypt led by Moses</t>
+          <t>But f exhort one another every day, as long as it is called today, that none of you may be hardened by g the deceitfulness of sin.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hebrews 3:17</t>
+          <t>Hebrews 3:14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>And with whom was he provoked for forty years Was it not with those who sinned, whose bodies fell in the wilderness</t>
+          <t>For we have come to share in Christ, h if indeed we hold our original confidence firm to the end.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hebrews 3:18</t>
+          <t>Hebrews 3:15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>And to whom did he swear that they would not enter his rest, but to those who were disobedient</t>
+          <t>As it is said, b Today, if you hear his voice, do not harden your hearts as in the rebellion.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hebrews 3:19</t>
+          <t>Hebrews 3:16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>So we see that they were unable to enter because of unbelief. 4</t>
+          <t>For i who were those who heard and yet rebelled? Was it not j all those who left Egypt led by Moses?</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hebrews 4:1</t>
+          <t>Hebrews 3:17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Therefore, while the promise of entering his rest still stands, let us fear lest any of you should seem to have failed to reach it. 2</t>
+          <t>And with whom was he provoked for forty years? Was it not with those who sinned, k whose bodies fell in the wilderness?</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hebrews 4:2</t>
+          <t>Hebrews 3:18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>For good news came to us just as to them, but the message they heard did not benefit them, because they were not united by faith with those who listened. 3</t>
+          <t>And to whom did he swear that l they would not enter his rest, but to those who were disobedient?</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hebrews 4:3</t>
+          <t>Hebrews 3:19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>For we who have believed enter that rest, as he has said, - As I swore in my wrath, - They shall not enter my rest, although his works were finished from the foundation of the world. 4</t>
+          <t>So we see that m they were unable to enter because of unbelief.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hebrews 4:4</t>
+          <t>Hebrews 4:1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>For he has somewhere spoken of the seventh day in this way: And God rested on the seventh day from all his works. 5</t>
+          <t>Therefore, while the promise of entering his rest still stands, let us fear lest any of you should seem n to have failed to reach it.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hebrews 4:5</t>
+          <t>Hebrews 4:2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>And again in this passage he said, - They shall not enter my rest. 6</t>
+          <t>For good news came to us just as to them, but the message they heard did not benefit them, because o they were not united by faith with those who listened.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Hebrews 4:6</t>
+          <t>Hebrews 4:3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Since therefore it remains for some to enter it, and those who formerly received the good news failed to enter because of disobedience, 7</t>
+          <t>For we who have believed enter that rest, as he has said, p As I swore in my wrath, They shall not enter my rest, although his works were finished from the foundation of the world.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hebrews 4:7</t>
+          <t>Hebrews 4:4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>again he appoints a certain day, Today, saying through David so long afterward, in the words already quoted, - Today, if you hear his voice, - do not harden your hearts. 8</t>
+          <t>For he has somewhere spoken of the seventh day in this way: q And God rested on the seventh day from all his works.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hebrews 4:8</t>
+          <t>Hebrews 4:5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>For if Joshua had given them rest, Go d would not have spoken of another day later on. 9</t>
+          <t>And again in this passage he said, r They shall not enter my rest.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hebrews 4:9</t>
+          <t>Hebrews 4:6</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>So then, there remains a Sabbath rest for the people of God,</t>
+          <t>Since therefore it remains for some to enter it, and those who formerly received the good news s failed to enter because of disobedience,</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hebrews 4:10</t>
+          <t>Hebrews 4:7</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>for whoever has entered God's rest has also rested from his works as God did from his.</t>
+          <t>again he appoints a certain day, Today, saying through David so long afterward, in the words already quoted, t Today, if you hear his voice, do not harden your hearts.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hebrews 4:11</t>
+          <t>Hebrews 4:8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Let us therefore strive to enter that rest, so that no one may fall by the same sort of disobedience.</t>
+          <t>For if Joshua had given them rest, Go d would not have spoken of another day later on.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hebrews 4:12</t>
+          <t>Hebrews 4:9</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>For the word of God is living and active, sharper than any two- edged sword, piercing to the division of soul and of spirit, of joints and of marrow, and discerning the thoughts and intentions of the heart.</t>
+          <t>So then, there remains a Sabbath rest for the people of God,</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hebrews 4:13</t>
+          <t>Hebrews 4:10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>And no creature is hidden from his sight, but all are naked and exposed to the eyes of him to whom we must give account. Jesus the Great High Priest</t>
+          <t>for whoever has entered God s rest has also u rested from his works as God did from his.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hebrews 4:14</t>
+          <t>Hebrews 4:11</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Since then we have a great high priest who has passed through the heavens, Jesus, the Son of God, let us hold fast our confession.</t>
+          <t>Let us therefore strive to enter that rest, so v that no one may fall by the same sort of disobedience.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hebrews 4:15</t>
+          <t>Hebrews 4:12</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>For we do not have a high priest who is unable to sympathize with our weaknesses, but one who in every respect has been tempted as we are, yet without sin.</t>
+          <t>For w the word of God is living and x active, y sharper than any z two-edged sword, piercing to the division of soul and of spirit, of joints and of marrow, and a discerning the thoughts and intentions of the heart.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hebrews 5:1</t>
+          <t>Hebrews 4:13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>For every high priest chosen from among men is appointed to act on behalf of men in relation to God, to offer gifts and sacrifices for sins. 2</t>
+          <t>And b no creature is hidden from his sight, but all are c naked and exposed to the eyes of him to whom we must give account. Jesus the Great High Priest</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Hebrews 5:3</t>
+          <t>Hebrews 4:14</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Because of this he is obligated to offer sacrifice for his own sins just as he does for those of the people. 4</t>
+          <t>Since then we have d a great high priest e who has passed through the heavens, Jesus, the Son of God, f let us hold fast our confession.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hebrews 5:4</t>
+          <t>Hebrews 4:15</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>And no one takes this honor for himself, but only when called by God, just as Aaron was. 5</t>
+          <t>For we do not have a high priest g who is unable to sympathize with our weaknesses, but one who in every respect has been d tempted as we are, h yet without sin.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hebrews 5:5</t>
+          <t>Hebrews 4:16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>So also Christ did not exalt himself to be made a high priest, but was appointed by him who said to him, - You are my Son, - today I have begotten you ; 6</t>
+          <t>i Let us then with confidence draw near to the throne of grace, that we may receive mercy and find grace to help in time of need.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Hebrews 5:6</t>
+          <t>Hebrews 5:1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>as he says also in another place, - You are a priest forever, - after the order of Melchizedek. 7</t>
+          <t>For every high priest chosen from among men j is appointed to act on behalf of men k in relation to God, l to offer gifts and sacrifices for sins.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hebrews 5:7</t>
+          <t>Hebrews 5:2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>In the days of his flesh, Jesu16's offered up prayers and supplications, with loud cries and tears, to him who was able to save him from death, and he was heard because of his reverence. 8</t>
+          <t>m He can deal gently with the ignorant and wayward, since he himself n is beset with weakness.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hebrews 5:8</t>
+          <t>Hebrews 5:3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Although he was a son, he learned obedience through what he suffered. 9</t>
+          <t>Because of this he is obligated to offer sacrifice for his own sins o just as he does for those of the people.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Hebrews 5:9</t>
+          <t>Hebrews 5:4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>And being made perfect, he became the source of eternal salvation to all who obey him,</t>
+          <t>And p no one takes this honor for himself, but only when called by God, q just as Aaron was.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hebrews 5:10</t>
+          <t>Hebrews 5:5</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>being designated by God a high priest after the order of Melchizedek. Warning Against Apostasy</t>
+          <t>So also Christ r did not exalt himself to be made a high priest, but was appointed by him who said to him, s You are my Son, today I have begotten you;</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hebrews 5:11</t>
+          <t>Hebrews 5:6</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>About this we have much to say, and it is hard to explain, since you have become dull of hearing.</t>
+          <t>as he says also in another place, t You are a priest forever, after the order of Melchizedek.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hebrews 5:12</t>
+          <t>Hebrews 5:7</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>For though by this time you ought to be teachers, you need someone to teach you again the basic principles of the oracles of God. You need milk, not solid food,</t>
+          <t>In the days of his flesh, u Jesu s offered up prayers and supplications, v with loud cries and tears, to him w who was able to save him from death, and x he was heard because of his reverence.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hebrews 5:13</t>
+          <t>Hebrews 5:8</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>for everyone who lives on milk is unskilled in the word of righteousness, since he is a child.</t>
+          <t>Although y he was a son, z he learned obedience through what he suffered.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hebrews 5:14</t>
+          <t>Hebrews 5:9</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>But solid food is for the mature, for those who have their powers of discernment trained by constant practice to distinguish good from evil. 6</t>
+          <t>And a being made perfect, he became the source of eternal salvation to all who obey him,</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hebrews 6:1</t>
+          <t>Hebrews 5:10</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Therefore let us leave the elementary doctrine of Christ and go on to maturity, not laying again a foundation of repentance from dead works and of faith toward God, 2</t>
+          <t>being designated by God a high priest b after the order of Melchizedek. Warning Against Apostasy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hebrews 6:2</t>
+          <t>Hebrews 5:11</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>and of instruction about washings, the laying on of hands, the resurrection of the dead, and eternal judgment. 3</t>
+          <t>About this we have much to say, and it is c hard to explain, since you have become dull of hearing.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hebrews 6:3</t>
+          <t>Hebrews 5:12</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>And this we will do if God permits. 4</t>
+          <t>For though by this time you ought to be teachers, you need someone to teach you again d the basic principles of the oracles of God. You need e milk, not solid food,</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hebrews 6:4</t>
+          <t>Hebrews 5:13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>For it is impossible, in the case of those who have once been enlightened, who have tasted the heavenly gift, and have shared in the Holy Spirit, 5</t>
+          <t>for everyone who lives on milk is unskilled in the word of righteousness, since he is f a child.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hebrews 6:5</t>
+          <t>Hebrews 5:14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>and have tasted the goodness of the word of God and the powers of the age to come, 6</t>
+          <t>But solid food is for g the mature, for those who have their powers h of discernment trained by constant practice to distinguish good from evil.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hebrews 6:6</t>
+          <t>Hebrews 6:1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>and then have fallen away, to restore them again to repentance, since they are crucifying once again the Son of God to their own harm and holding him up to contempt. 7</t>
+          <t>Therefore i let us leave j the elementary doctrine of Christ and go on to maturity, not laying again a foundation of repentance k from dead works and of faith toward God,</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hebrews 6:7</t>
+          <t>Hebrews 6:2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>For land that has drunk the rain that often falls on it, and produces a crop useful to those for whose sake it is cultivated, receives a blessing from God. 8</t>
+          <t>and of l instruction about washings,</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Hebrews 6:8</t>
+          <t>Hebrews 6:3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>But if it bears thorns and thistles, it is worthless and near to being cursed, and its end is to be burned. 9</t>
+          <t>m the laying on of hands, n the resurrection of the dead, and o eternal judgment.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hebrews 6:9</t>
+          <t>Hebrews 6:3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Though we speak in this way, yet in your case, beloved, we feel sure of better thing's things that belong to salvation.</t>
+          <t>And this we will do p if God permits.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hebrews 6:10</t>
+          <t>Hebrews 6:4</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>For God is not unjust so as to overlook your work and the love that you have shown for his name in serving the saints, as you still do.</t>
+          <t>For it is impossible, in the case of those q who have once been enlightened, who have tasted r the heavenly gift, and s have shared in the Holy Spirit,</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hebrews 6:11</t>
+          <t>Hebrews 6:5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>And we desire each one of you to show the same earnestness to have the full assurance of hope until the end,</t>
+          <t>and t have tasted the goodness of the word of God and the powers of the age to come,</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hebrews 6:12</t>
+          <t>Hebrews 6:6</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>so that you may not be sluggish, but imitators of those who through faith and patience inherit the promises. The Certainty of God's Promise</t>
+          <t>and u then have fallen away, to restore them again to repentance, since v they are crucifying once again the Son of God to their own harm and holding him up to contempt.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hebrews 6:13</t>
+          <t>Hebrews 6:7</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>For when God made a promise to Abraham, since he had no one greater by whom to swear, he swore by himself,</t>
+          <t>For w land that has drunk the rain that often falls on it, and produces a crop useful to those for whose sake it is cultivated, receives a blessing from God.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hebrews 6:14</t>
+          <t>Hebrews 6:8</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>saying, Surely I will bless you and multiply you.</t>
+          <t>But x if it bears thorns and thistles, it is worthless and near to being cursed, y and its end is to be burned.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hebrews 6:15</t>
+          <t>Hebrews 6:9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>And thus Abraham, having patiently waited, obtained the promise.</t>
+          <t>Though we speak in this way, yet in your case, beloved, we feel sure of better thing s things that belong to salvation.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Hebrews 6:16</t>
+          <t>Hebrews 6:10</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>For people swear by something greater than themselves, and in all their disputes an oath is final for confirmation.</t>
+          <t>For z God is not unjust so as to overlook a your work and the love that you have shown for his name in b serving the saints, as you still do.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hebrews 6:17</t>
+          <t>Hebrews 6:11</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>So when God desired to show more convincingly to the heirs of the promise the unchangeable character of his purpose, he guaranteed it with an oath,</t>
+          <t>And we desire each one of you to show the same earnestness to have the full assurance c of hope until the end,</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Hebrews 6:18</t>
+          <t>Hebrews 6:12</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>so that by two unchangeable things, in which it is impossible for God to lie, we who have fled for refuge might have strong encouragement to hold fast to the hope set before us.</t>
+          <t>so that you may not be sluggish, but d imitators of those who through faith and patience inherit the promises. The Certainty of God s Promise</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Hebrews 6:19</t>
+          <t>Hebrews 6:13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>We have this as a sure and steadfast anchor of the soul, a hope that enters into the inner place behind the curtain,</t>
+          <t>For when God made a promise to Abraham, since he had no one greater by whom to swear, e he swore by himself,</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hebrews 6:20</t>
+          <t>Hebrews 6:14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>where Jesus has gone as a forerunner on our behalf, having become a high priest forever after the order of Melchizedek. The Priestly Order of Melchizedek 7</t>
+          <t>saying, f Surely I will bless you and multiply you.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hebrews 7:1</t>
+          <t>Hebrews 6:15</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>For this Melchizedek, king of Salem, priest of the Most High God, met Abraham returning from the slaughter of the kings and blessed him, 2</t>
+          <t>And thus Abraham,</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hebrews 7:2</t>
+          <t>Hebrews 6:16</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>and to him Abraham apportioned a tenth part of everything. He is first, by translation of his name, king of righteousness, and then he is also king of Salem, that is, king of peace. 3</t>
+          <t>g having patiently waited, obtained the promise.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hebrews 7:3</t>
+          <t>Hebrews 6:16</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>He is without father or mother or genealogy, having neither beginning of days nor end of life, but resembling the Son of God he continues a priest forever. 4</t>
+          <t>For people swear by something greater than themselves, and in all their disputes h an oath is final for confirmation.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hebrews 7:4</t>
+          <t>Hebrews 6:17</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>See how great this man was to whom Abraham the patriarch gave a tenth of the spoils! 5</t>
+          <t>So when God desired to show more convincingly to i the heirs of the promise j the unchangeable character of his purpose, k he guaranteed it with an oath,</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hebrews 7:5</t>
+          <t>Hebrews 6:18</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>And those descendants of Levi who receive the priestly office have a commandment in the law to take tithes from the people, that is, from their brothers, though these also are descended from Abraham. 6</t>
+          <t>so that by two unchangeable things, in which l it is impossible for God to lie, we who have fled for refuge might have strong encouragement to hold fast to the hope m set before us.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hebrews 7:6</t>
+          <t>Hebrews 6:19</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>But this man who does not have his descent from them received tithes from Abraham and blessed him who had the promises. 7</t>
+          <t>We have this as a sure and steadfast anchor of the soul, a hope that enters into n the inner place behind the curtain,</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hebrews 7:7</t>
+          <t>Hebrews 6:20</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>It is beyond dispute that the inferior is blessed by the superior. 8</t>
+          <t>where Jesus has gone o as a forerunner on our behalf, p having become a high priest forever after the order of Melchizedek. The Priestly Order of Melchizedek</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hebrews 7:8</t>
+          <t>Hebrews 7:1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>In the one case tithes are received by mortal men, but in the other case, by one of whom it is testified that he lives. 9</t>
+          <t>For this q Melchizedek, king of r Salem, priest of s the Most High God, met Abraham returning from the slaughter of the kings and blessed him,</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hebrews 7:9</t>
+          <t>Hebrews 7:2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>One might even say that Levi himself, who receives tithes, paid tithes through Abraham,</t>
+          <t>and to him Abraham apportioned a tenth part of everything. He is first, by translation of his name, king of righteousness, and then he is also king of Salem, that is, king of peace.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hebrews 7:10</t>
+          <t>Hebrews 7:3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>for he was still in the loins of his ancestor when Melchizedek met him. Jesus Compared to Melchizedek</t>
+          <t>He is without father or mother t or genealogy, having neither beginning of days nor end of life, but resembling the Son of God he continues a priest forever.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Hebrews 7:12</t>
+          <t>Hebrews 7:4</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>For when there is a change in the priesthood, there is necessarily a change in the law as well.</t>
+          <t>See how great this man was to whom Abraham u the patriarch gave a tenth of the spoils!</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hebrews 7:13</t>
+          <t>Hebrews 7:5</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>For the one of whom these things are spoken belonged to another tribe, from which no one has ever served at the altar.</t>
+          <t>And v those descendants of Levi who receive the priestly office have a commandment in the law to take tithes from the people, that is, from their brothers, though these also are descended from Abraham.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hebrews 7:14</t>
+          <t>Hebrews 7:6</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>For it is evident that our Lord was descended from Judah, and in connection with that tribe Moses said nothing about priests.</t>
+          <t>But this man w who does not have his descent from them received tithes from Abraham and blessed x him who had the promises.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Hebrews 7:15</t>
+          <t>Hebrews 7:7</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>This becomes even more evident when another priest arises in the likeness of Melchizedek,</t>
+          <t>It is beyond dispute that the inferior is blessed by the superior.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hebrews 7:16</t>
+          <t>Hebrews 7:8</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>who has become a priest, not on the basis of a legal requirement concerning bodily descent, but by the power of an indestructible life.</t>
+          <t>In the one case tithes are received by mortal men, but in the other case, by one y of whom it is testified that z he lives.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Hebrews 7:17</t>
+          <t>Hebrews 7:9</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>For it is witnessed of him, - You are a priest forever, - after the order of Melchizedek.</t>
+          <t>One might even say that Levi himself, who receives tithes, paid tithes through Abraham,</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hebrews 7:18</t>
+          <t>Hebrews 7:10</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>For on the one hand, a former commandment is set aside because of its weakness and uselessness</t>
+          <t>for he was still in the loins of his ancestor when Melchizedek met him. Jesus Compared to Melchizedek</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hebrews 7:19</t>
+          <t>Hebrews 7:11</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>(for the law made nothing perfect); but on the other hand, a better hope is introduced, through which we draw near to God.</t>
+          <t>a Now if perfection had been attainable through the Levitical priesthood, what further need would there have been for another priest to arise after the order of Melchizedek, rather than one named after the order of Aaron?</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Hebrews 7:20</t>
+          <t>Hebrews 7:12</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>And it was not without an oath. For those who formerly became priests were made such without an oath,</t>
+          <t>For when there is a change in the priesthood, there is necessarily a change in the law as well.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hebrews 7:21</t>
+          <t>Hebrews 7:13</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>but this one was made a priest with an oath by the one who said to him: - The Lord has sworn - and will not change his mind, - You are a priest forever.</t>
+          <t>For the one of whom these things are spoken belonged to another tribe, from which no one has ever served at the altar.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Hebrews 7:22</t>
+          <t>Hebrews 7:14</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>This makes Jesus the guarantor of a better cov173 enant.</t>
+          <t>For it is evident that our Lord was descended b from Judah, and in connection with that tribe Moses said nothing about priests.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Hebrews 7:23</t>
+          <t>Hebrews 7:15</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>The former priests were many in number, because they were prevented by death from continuing in office,</t>
+          <t>This becomes even more evident when another priest arises in the likeness of Melchizedek,</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hebrews 7:24</t>
+          <t>Hebrews 7:16</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>but he holds his priesthood permanently, because he continues forever.</t>
+          <t>who has become a priest, not on the basis of a legal requirement concerning bodily descent, but by the power of an indestructible life.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hebrews 7:25</t>
+          <t>Hebrews 7:17</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Consequently, he is able to save to the uttermos16 t those who draw near to God through him, since he always lives to make intercession for them.</t>
+          <t>For it is witnessed of him, c You are a priest forever, after the order of Melchizedek.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Hebrews 7:26</t>
+          <t>Hebrews 7:18</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>For it was indeed fitting that we should have such a high priest, holy, innocent, unstained, separated from sinners, and exalted above the heavens.</t>
+          <t>For on the one hand, a former commandment is set aside d because of its weakness and uselessness</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Hebrews 7:27</t>
+          <t>Hebrews 7:19</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>He has no need, like those high priests, to offer sacrifices daily, first for his own sins and then for those of the people, since he did this once for all when he offered up himself.</t>
+          <t>; but on the other hand, f a better hope is introduced, through which g we draw near to God.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Hebrews 7:28</t>
+          <t>Hebrews 7:20</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>For the law appoints men in their weakness as high priests, but the word of the oath, which came later than the law, appoints a Son who has been made perfect forever. Jesus, High Priest of a Better Covenant 8</t>
+          <t>And it was not without an oath. For those who formerly became priests were made such without an oath,</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Hebrews 8:1</t>
+          <t>Hebrews 7:21</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Now the point in what we are saying is this: we have such a high priest, one who is seated at the right hand of the throne of the Majesty in heaven, 2</t>
+          <t>but this one was made a priest with an oath by the one who said to him: h The Lord has sworn and will not change his mind, You are a priest forever.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Hebrews 8:2</t>
+          <t>Hebrews 7:22</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>a minister in the holy places, in the true ten16 t that the Lord set up, not man. 3</t>
+          <t>This makes Jesus the guarantor of i a better cov?enant.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Hebrews 8:3</t>
+          <t>Hebrews 7:23</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>For every high priest is appointed to offer gifts and sacrifices; thus it is necessary for this priest also to have something to offer. 4</t>
+          <t>The former priests were many in number, because they were prevented by death from continuing in office,</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hebrews 8:4</t>
+          <t>Hebrews 7:24</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Now if he were on earth, he would not be a priest at all, since there are priests who offer gifts according to the law. 5</t>
+          <t>but he holds his priesthood permanently, because he continues j forever.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hebrews 8:5</t>
+          <t>Hebrews 7:25</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>They serve a copy and shadow of the heavenly things. For when Moses was about to erect the tent, he was instructed by God, saying, See that you make everything according to the pattern that was shown you on the mountain. 6</t>
+          <t>Consequently, he is able to save to the uttermost</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hebrews 8:6</t>
+          <t>Hebrews 7:26</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>But as it is, Chris t has obtained a ministry that is as much more excellent than the old as the cov173 enant he mediates is better, since it is enacted on better promises. 7</t>
+          <t>k those who draw near to God l through him, since he always lives m to make intercession for them.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Hebrews 8:8</t>
+          <t>Hebrews 7:26</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>For he finds fault with them when he says: - Behold, the days are coming, declares the Lord, - when I will establish a new covenant with the house of Israel and with the house of Judah, -</t>
+          <t>For it was indeed fitting that we should have such a high priest, n holy, innocent, unstained, o separated from sinners, and p exalted above the heavens.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Hebrews 8:9</t>
+          <t>Hebrews 7:27</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>not like the covenant that I made with their fathers - on the day when I took them by the hand to bring them out of the land of Egypt. - For they did not continue in my covenant, - and so I showed no concern for them, declares the Lord. -</t>
+          <t>He has no need, like those high priests, to offer sacrifices daily, q first for his own sins and then for those of the people, since he did this r once for all when he offered up himself.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Hebrews 8:10</t>
+          <t>Hebrews 7:28</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>For this is the covenant that I will make with the house of Israel - after those days, declares the Lord: - I will put my laws into their minds, - and write them on their hearts, - and I will be their God, - and they shall be my people. -</t>
+          <t>For the law appoints men s in their weakness as high priests, but the word of the oath, which came later than the law, appoints a Son who has been made t perfect forever. Jesus, High Priest of a Better Covenant</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Hebrews 8:11</t>
+          <t>Hebrews 8:1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>And they shall not teach, each one his neighbor - and each one his brother, saying, Know the Lord, - for they shall all know me, - from the least of them to the greatest. -</t>
+          <t>Now the point in what we are saying is this: we have such a high priest, u one who is seated at the right hand of the throne of the Majesty in heaven,</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hebrews 8:12</t>
+          <t>Hebrews 8:2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>For I will be merciful toward their iniquities, - and I will remember their sins no more.</t>
+          <t>a minister in the holy places, in v the true ten t that the Lord w set up, not man.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Hebrews 8:13</t>
+          <t>Hebrews 8:3</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>In speaking of a new cov173 enant, he makes the first one obsolete. And what is becoming obsolete and growing old is ready to vanish away. The Earthly Holy Place 9</t>
+          <t>For x every high priest is appointed to offer gifts and sacrifices; thus y it is necessary for this priest also to have something to offer.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hebrews 9:1</t>
+          <t>Hebrews 8:4</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Now even the first cov173 enant had regulations for worship and an earthly place of holiness. 2</t>
+          <t>Now if he were on earth, he would not be a priest at all, since there are priests who offer gifts according to the law.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hebrews 9:2</t>
+          <t>Hebrews 8:5</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>For a ten16 t was prepared, the first section, in which were the lampstand and the table and the bread of the Presence. It is called the Holy Place. 3</t>
+          <t>They serve z a copy and a shadow of the heavenly things. For when Moses was about to erect the tent, he was instructed by God, saying, b See that you make everything according to the pattern that was shown you on the mountain.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hebrews 9:3</t>
+          <t>Hebrews 8:6</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Behind the second curtain was a second sectio16 n called the Most Holy Place, 4</t>
+          <t>But as it is, Chris t has obtained a ministry that is c as much more excellent than the old as d the cov?enant e he mediates is better, since it is enacted on better promises.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Hebrews 9:4</t>
+          <t>Hebrews 8:7</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>having the golden altar of incense and the ark of the cov173 enant covered on all sides with gold, in which was a golden urn holding the manna, and Aaron's staff that budded, and the tablets of the cov173 enant. 5</t>
+          <t>f For if that first cov?enant had been faultless, there would have been no occasion to look for a second.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Hebrews 9:5</t>
+          <t>Hebrews 8:8</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Above it were the cherubim of glory overshadowing the mercy seat. Of these things we cannot now speak in detail. 6</t>
+          <t>For he finds fault with them when he says: g Behold, the days are coming, declares the Lord, when I will establish a new covenant with the house of Israel and with the house of Judah,</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Hebrews 9:6</t>
+          <t>Hebrews 8:9</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>These preparations having thus been made, the priests go regularly into the first section, performing their ritual duties, 7</t>
+          <t>not like the covenant that I made with their fathers on the day when I took them by the hand to bring them out of the land of Egypt. For they did not continue in my covenant, and so I showed no concern for them, declares the Lord.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Hebrews 9:7</t>
+          <t>Hebrews 8:10</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>but into the second only the high priest goes, and he but once a year, and not without taking blood, which he offers for himself and for the unintentional sins of the people. 8</t>
+          <t>h For this is the covenant that I will make with the house of Israel after those days, declares the Lord: I will put my laws into their minds, and i write them on their hearts, and I will be their God, and they shall be my people.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Hebrews 9:8</t>
+          <t>Hebrews 8:11</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>By this the Holy Spirit indicates that the way into the holy places is not yet opened as long as the first section is still standing 9</t>
+          <t>And they shall not teach, each one his neighbor and each one his brother, saying, Know the Lord, for they shall j all know me, from the least of them to the greatest.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hebrews 9:9</t>
+          <t>Hebrews 8:12</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>(which is symbolic for the pres173 ent age). According to this arrangement, gifts and sacrifices are offered that cannot perfect the conscience of the worshiper,</t>
+          <t>For I will be merciful toward their iniquities, k and I will remember their sins no more.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Hebrews 9:10</t>
+          <t>Hebrews 8:13</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>but deal only with food and drink and various washings, regulations for the body imposed until the time of reformation. Redemption Through the Blood of Christ</t>
+          <t>In speaking of a new cov?enant, he makes the first one obsolete. And l what is becoming obsolete and growing old is ready to vanish away. The Earthly Holy Place</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Hebrews 9:11</t>
+          <t>Hebrews 9:1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>But when Christ appeared as a high priest of the good things that have come, then through the greater and more perfect tent ( not made with hands, that is, not of this creation)</t>
+          <t>Now even the first cov?enant had regulations for worship and m an earthly place of holiness.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Hebrews 9:12</t>
+          <t>Hebrews 9:2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>he entered once for all into the holy places, not by means of the blood of goats and calves but by means of his own blood, thus securing an eternal redemption.</t>
+          <t>For n a ten t was prepared, the first section, in which were o the lampstand and p the table and q the bread of the Presence. It is called the Holy Place.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Hebrews 9:13</t>
+          <t>Hebrews 9:3</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>For if the blood of goats and bulls, and the sprinkling of defiled persons with the ashes of a heifer, sanctif16 y for the purification of the flesh,</t>
+          <t>Behind r the second curtain was a second sectio n called the Most Holy Place,</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Hebrews 9:14</t>
+          <t>Hebrews 9:4</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>how much more will the blood of Christ, who through the eternal Spirit offered himself without blemish to God, purify ou16 r conscience from dead works to serve the living God.</t>
+          <t>having the golden s altar of incense and t the ark of the cov?enant covered on all sides with gold, in which was u a golden urn holding the manna, and v Aaron s staff that budded, and w the tablets of the cov?enant.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Hebrews 9:15</t>
+          <t>Hebrews 9:5</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Therefore he is the mediator of a new cov173 enant, so that those who are called may receive the promised eternal inheritance, since a death has occurred that redeems them from the transgressions committed under the first cov173 enant.</t>
+          <t>Above it were x the cherubim of glory overshadowing y the mercy seat. Of these things we cannot now speak in detail.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Hebrews 9:16</t>
+          <t>Hebrews 9:6</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>For where a will is involved, the death of the one who made it must be established.</t>
+          <t>These preparations having thus been made, z the priests go regularly into the first section, performing their ritual duties,</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Hebrews 9:17</t>
+          <t>Hebrews 9:7</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>For a will takes effect only at death, since it is not in force as long as the one who made it is alive.</t>
+          <t>but into the second only a the high priest goes, and he but a once a year, and not without taking blood, b which he offers for himself and for the unintentional sins of the people.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hebrews 9:18</t>
+          <t>Hebrews 9:8</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Therefore not even the first cov173 enant was inaugurated without blood.</t>
+          <t>By this the Holy Spirit indicates that c the way into the holy places is not yet opened as long as the first section is still standing</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Hebrews 9:19</t>
+          <t>Hebrews 9:9</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>For when every commandment of the law had been declared by Moses to all the people, he took the blood of calves and goats, with water and scarlet wool and hyssop, and sprinkled both the book itself and all the people,</t>
+          <t>. According to this arrangement, gifts and sacrifices are offered d that cannot perfect the conscience of the worshiper,</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Hebrews 9:20</t>
+          <t>Hebrews 9:10</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>saying, This is the blood of the cov173 enant that God commanded for you.</t>
+          <t>but deal only with e food and drink and f various washings, regulations for the body imposed until the time of reformation. Redemption Through the Blood of Christ</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hebrews 9:21</t>
+          <t>Hebrews 9:11</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>And in the same way he sprinkled with the blood both the tent and all the vessels used in worship.</t>
+          <t>But when Christ appeared as a high priest g of the good things that have come, then through h the greater and more perfect tent</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hebrews 9:22</t>
+          <t>Hebrews 9:12</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Indeed, under the law almost everything is purified with blood, and without the shedding of blood there is no forgiveness of sins.</t>
+          <t>he j entered k once for all into the holy places, not by means of l the blood of goats and calves but m by means of his own blood, n thus securing an eternal redemption.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hebrews 9:23</t>
+          <t>Hebrews 9:13</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Thus it was necessary for the copies of the heavenly things to be purified with these rites, but the heavenly things themselves with better sacrifices than these.</t>
+          <t>For if o the blood of goats and bulls, and the sprinkling of defiled persons with p the ashes of a heifer, sanctif y for the purification of the flesh,</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Hebrews 9:24</t>
+          <t>Hebrews 9:14</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>For Christ has entered, not into holy places made with hands, which are copies of the true things, but into heaven itself, now to appear in the presence of God on our behalf.</t>
+          <t>how much more will q the blood of Christ, who through the eternal Spirit r offered himself without blemish to God, s purify ou r conscience t from dead works u to serve the living God.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hebrews 9:25</t>
+          <t>Hebrews 9:15</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nor was it to offer himself repeatedly, as the high priest enters the holy places every year with blood not his own,</t>
+          <t>Therefore he is v the mediator of a new cov?enant, so that w those who are called may x receive the promised eternal inheritance, y since a death has occurred that redeems them from the transgressions committed under the first cov?enant.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hebrews 9:26</t>
+          <t>Hebrews 9:16</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>for then he would have had to suffer repeatedly since the foundation of the world. But as it is, he has appeared once for all at the end of the ages to put away sin by the sacrifice of himself.</t>
+          <t>For where a will is involved, the death of the one who made it must be established.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Hebrews 9:27</t>
+          <t>Hebrews 9:17</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>And just as it is appointed for man to die once, and after that comes judgment,</t>
+          <t>For z a will takes effect only at death, since it is not in force as long as the one who made it is alive.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hebrews 9:28</t>
+          <t>Hebrews 9:18</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>so Christ, having been offered once to bear the sins of many, will appear a second time, not to deal with sin but to save those who are eagerly waiting for him. Christ's Sacrifice Once for All</t>
+          <t>Therefore not even the first cov?enant was inaugurated a without blood.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hebrews 10:1</t>
+          <t>Hebrews 9:19</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>For since the law has but a shadow of the good things to come instead of the true form of these realities, it can never, by the same sacrifices that are continually offered every year, make perfect those who draw near. 2</t>
+          <t>For when every commandment of the law had been declared by Moses to all the people, he took b the blood of calves and goats, c with water and scarlet wool and hyssop, and sprinkled both the book itself and all the people,</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hebrews 10:2</t>
+          <t>Hebrews 9:20</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Otherwise, would they not have ceased to be offered, since the worshipers, having once been cleansed, would no long173 er have any consciousness of sins 3</t>
+          <t>saying, d This is the blood of the cov?enant that God commanded for you.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hebrews 10:3</t>
+          <t>Hebrews 9:21</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>But in these sacrifices there is a reminder of sins every year. 4</t>
+          <t>And in the same way he sprinkled with the blood both e the tent and all the vessels used in worship.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hebrews 10:4</t>
+          <t>Hebrews 9:22</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>For it is impossible for the blood of bulls and goats to take away sins. 5</t>
+          <t>Indeed, under the law almost everything is purified with blood, and f without the shedding of blood there is no forgiveness of sins.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hebrews 10:5</t>
+          <t>Hebrews 9:23</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Consequently, when Chris16 t came into the world, he said, - Sacrifices and offerings you have not desired, - but a body have you prepared for me; -</t>
+          <t>Thus it was necessary for g the copies of the heavenly things to be purified with these rites, but the heavenly things themselves with better sacrifices than these.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Hebrews 10:6</t>
+          <t>Hebrews 9:24</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>in burnt offerings and sin offerings - you have taken no pleasure. -</t>
+          <t>For Christ has entered, not into holy places h made with hands, which are copies of the true things, but into heaven itself, now to appear in the presence of God i on our behalf.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hebrews 10:7</t>
+          <t>Hebrews 9:25</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Then I said, Behold, I have come to do your will, O God, - as it is written of me in the scroll of the book. 8</t>
+          <t>Nor was it to offer himself repeatedly, as j the high priest enters k the holy places every year with blood not his own,</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hebrews 10:8</t>
+          <t>Hebrews 9:26</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>When he said above, You have neither desired nor taken pleasure in sacrifices and offerings and burnt offerings and sin offerings (these are offered according to the law), 9</t>
+          <t>for then he would have had to suffer repeatedly since the foundation of the world. But as it is, l he has appeared m once for all n at the end of the ages to put away sin by the sacrifice of himself.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Hebrews 10:9</t>
+          <t>Hebrews 9:27</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>then he added, Behold, I have come to do your will. He does away with the first in order to establish the second.</t>
+          <t>And just as o it is appointed for man to die once, and p after that comes judgment,</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Hebrews 10:10</t>
+          <t>Hebrews 9:28</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>And by that will we have been sanctified through the offering of the body of Jesus Christ once for all.</t>
+          <t>so Christ, having been offered once q to bear the sins of r many, will appear s a second time, t not to deal with sin but to save those who are eagerly u waiting for him. Christ s Sacrifice Once for All</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Hebrews 10:11</t>
+          <t>Hebrews 10:1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>And every priest stands daily at his service, offering repeatedly the same sacrifices, which can never take away sins.</t>
+          <t>For since the law has but v a shadow w of the good things to come instead of the true form of these realities, x it can never, by the same sacrifices that are continually offered every year, make perfect those who draw near.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Hebrews 10:12</t>
+          <t>Hebrews 10:2</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>But when Chris16 t had offered for all time a single sacrifice for sins, he sat down at the right hand of God,</t>
+          <t>Otherwise, would they not have ceased to be offered, since the worshipers, having once been cleansed, would no long?er have any consciousness of sins?</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Hebrews 10:13</t>
+          <t>Hebrews 10:3</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>waiting from that time until his enemies should be made a footstool for his feet.</t>
+          <t>But y in these sacrifices z there is a reminder of sins every year.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Hebrews 10:14</t>
+          <t>Hebrews 10:4</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>For by a single offering he has perfected for all time those who are being sanctified.</t>
+          <t>For a it is impossible for the blood of bulls and goats to take away sins.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Hebrews 10:15</t>
+          <t>Hebrews 10:5</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>And the Holy Spirit also bears witness to us; for after saying, -</t>
+          <t>Consequently, b when Chris t came into the world, he said, c Sacrifices and offerings you have not desired, but a body have you prepared for me;</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Hebrews 10:16</t>
+          <t>Hebrews 10:6</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>This is the covenant that I will make with them - after those days, declares the Lord: - I will put my laws on their hearts, - and write them on their minds,</t>
+          <t>in burnt offerings and sin offerings you have taken no pleasure.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Hebrews 10:17</t>
+          <t>Hebrews 10:7</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>then he adds, - I will remember their sins and their lawless deeds no more.</t>
+          <t>Then I said, Behold, I have come to do your will, O God, as it is written of me in the scroll of the book.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Hebrews 10:18</t>
+          <t>Hebrews 10:8</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Where there is forgiveness of these, there is no long173 er any offering for sin. The Full Assurance of Faith</t>
+          <t>When he said above, You have neither desired nor taken pleasure in c sacrifices and offerings and burnt offerings and sin offerings,</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Hebrews 10:20</t>
+          <t>Hebrews 10:9</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>by the new and living way that he opened for us through the curtain, that is, through his flesh,</t>
+          <t>then he added, d Behold, I have come to do your will. He does away with the first in order to establish the second.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Hebrews 10:21</t>
+          <t>Hebrews 10:10</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>and since we have a great priest over the house of God,</t>
+          <t>And by that will e we have been sanctified through the offering of f the body of Jesus Christ g once for all.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Hebrews 10:22</t>
+          <t>Hebrews 10:11</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>let us draw near with a true heart in full assurance of faith, with our hearts sprinkled clean from an evil conscience and our bodies washed with pure water.</t>
+          <t>And every priest stands h daily at his service, i offering repeatedly the same sacrifices, j which can never take away sins.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Hebrews 10:24</t>
+          <t>Hebrews 10:12</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>And let us consider how to stir up one another to love and good works,</t>
+          <t>But when Chris t had offered for all time a single sacrifice for sins, he k sat down at the right hand of God,</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Hebrews 10:26</t>
+          <t>Hebrews 10:13</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>For if we go on sinning deliberately after receiving the knowledge of the truth, there no long173 er remains a sacrifice for sins,</t>
+          <t>waiting from that time l until his enemies should be made a footstool for his feet.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Hebrews 10:29</t>
+          <t>Hebrews 10:14</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>How much worse punishment, do you think, will be deserved by the one who has trampled underfoot the Son of God, and has profaned the blood of the cov173 enant by which he was sanctified, and has outraged the Spirit of grace</t>
+          <t>For by a single offering m he has perfected for all time those who are being sanctified.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Hebrews 10:30</t>
+          <t>Hebrews 10:15</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>For we know him who said, Vengeance is mine; I will repay. And again, The Lord will judge his people.</t>
+          <t>And the Holy Spirit also bears witness to us; for after saying,</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Hebrews 10:32</t>
+          <t>Hebrews 10:16</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>But recall the former days when, after you were enlightened, you endured a hard struggle with sufferings,</t>
+          <t>n This is the covenant that I will make with them after those days, declares the Lord: I will put my laws on their hearts, and write them on their minds,</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Hebrews 10:33</t>
+          <t>Hebrews 10:17</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>sometimes being publicly exposed to reproach and affliction, and sometimes being partners with those so treated.</t>
+          <t>then he adds, o I will remember their sins and their lawless deeds no more.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Hebrews 10:34</t>
+          <t>Hebrews 10:18</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>For you had compassion on those in prison, and you joyfully accepted the plundering of your property, since you knew that you yourselves had a better possession and an abiding one.</t>
+          <t>Where there is forgiveness of these, there is no long?er any offering for sin. The Full Assurance of Faith</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Hebrews 10:35</t>
+          <t>Hebrews 10:19</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Therefore do not throw away your confidence, which has a great reward.</t>
+          <t>p Therefore, brothers, since we have confidence to enter q the holy places by the blood of Jesus,</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hebrews 10:36</t>
+          <t>Hebrews 10:20</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>For you have need of endurance, so that when you have done the will of God you may receive what is promised.</t>
+          <t>by r the new and living way that he opened for us through s the curtain, that is, through his flesh,</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Hebrews 10:37</t>
+          <t>Hebrews 10:21</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>For, - Yet a little while, - and the coming one will come and will not delay; -</t>
+          <t>and since we have t a great priest over the house of God,</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Hebrews 10:38</t>
+          <t>Hebrews 10:22</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>but my righteous one shall live by faith, - and if he shrinks back, - my soul has no pleasure in him.</t>
+          <t>let us draw near with a true heart in full assurance of faith, with our hearts u sprinkled clean v from an evil conscience and our bodies w washed with pure water.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Hebrews 10:39</t>
+          <t>Hebrews 10:23</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>But we are not of those who shrink back and are destroyed, but of those who have faith and preserve their souls. By Faith</t>
+          <t>x Let us hold fast the confession of our hope without wavering, for y he who promised is faithful.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Hebrews 11:1</t>
+          <t>Hebrews 10:24</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Now faith is the assurance of things hoped for, the conviction of things not seen. 2</t>
+          <t>And z let us consider how to stir up one another to love and good works,</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Hebrews 11:2</t>
+          <t>Hebrews 10:25</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>For by it the people of old received their commendation. 3</t>
+          <t>a not neglecting to meet together, as is the habit of some, but encouraging one another, and b all the more as you see c the Day drawing near.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Hebrews 11:3</t>
+          <t>Hebrews 10:26</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>By faith we understand that the universe was created by the word of God, so that what is seen was not made out of things that are visible. 4</t>
+          <t>For d if we go on sinning deliberately e after receiving the knowledge of the truth, f there no long?er remains a sacrifice for sins,</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Hebrews 11:4</t>
+          <t>Hebrews 10:27</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>By faith Abel offered to God a more acceptable sacrifice than Cain, through which he was commended as righteous, God commending him by accepting his gifts. And through his faith, though he died, he still speaks. 5</t>
+          <t>g but a fearful expectation of judgment, and h a fury of fire that will consume the adversaries.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Hebrews 11:5</t>
+          <t>Hebrews 10:28</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>By faith Enoch was taken up so that he should not see death, and he was not found, because God had taken him. Now before he was taken he was commended as having pleased God. 6</t>
+          <t>i Anyone who has set aside the law of Moses dies without mercy j on the evidence of two or three witnesses.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Hebrews 11:6</t>
+          <t>Hebrews 10:29</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>And without faith it is impossible to please him, for whoever would draw near to God must believe that he exists and that he rewards those who seek him. 7</t>
+          <t>How much worse punishment, do you think, will be deserved by the one k who has trampled underfoot the Son of God, and has profaned l the blood of the cov?enant m by which he was sanctified, and has n outraged the Spirit of grace?</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Hebrews 11:7</t>
+          <t>Hebrews 10:30</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>By faith Noah, being warned by God concerning events as yet unseen, in reverent fear constructed an ark for the saving of his household. By this he condemned the world and became an heir of the righteousness that comes by faith. 8</t>
+          <t>For we know him who said, o Vengeance is mine; I will repay. And again, p The Lord will judge his people.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Hebrews 11:8</t>
+          <t>Hebrews 10:31</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>By faith Abraham obeyed when he was called to go out to a place that he was to receive as an inheritance. And he went out, not knowing where he was going. 9</t>
+          <t>q It is a fearful thing to fall into the hands of the living God.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Hebrews 11:9</t>
+          <t>Hebrews 10:32</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>By faith he went to live in the land of promise, as in a foreign land, living in tents with Isaac and Jacob, heirs with him of the same promise.</t>
+          <t>But recall the former days when, after r you were enlightened, you endured s a hard struggle with sufferings,</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Hebrews 11:10</t>
+          <t>Hebrews 10:33</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>For he was looking forward to the city that has foundations, whose designer and builder is God.</t>
+          <t>sometimes being t publicly exposed to reproach and affliction, and sometimes being partners with those so treated.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Hebrews 11:11</t>
+          <t>Hebrews 10:34</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>By faith Sarah herself received power to conceive, even when she was past the age, since she considered him faithful who had promised.</t>
+          <t>For u you had compassion on those in prison, and v you joyfully accepted the plundering of your property, since you knew that you yourselves had w a better possession and an abiding one.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Hebrews 11:12</t>
+          <t>Hebrews 10:35</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Therefore from one man, and him as good as dead, were born descendants as many as the stars of heaven and as many as the innumerable grains of sand by the seashore.</t>
+          <t>Therefore do not throw away your confidence, which has x a great reward.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Hebrews 11:13</t>
+          <t>Hebrews 10:36</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>These all died in faith, not having received the things promised, but having seen them and greeted them from afar, and having acknowledged that they were strangers and exiles on the earth.</t>
+          <t>For y you have need of endurance, so that z when you have done the will of God you may a receive what is promised.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Hebrews 11:14</t>
+          <t>Hebrews 10:37</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>For people who speak thus make it clear that they are seeking a homeland.</t>
+          <t>For, b Yet a little while, and c the coming one will come and will not delay;</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Hebrews 11:15</t>
+          <t>Hebrews 10:38</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>If they had been thinking of that land from which they had gone out, they would have had opportunity to return.</t>
+          <t>d but my righteous one shall live by faith, and if he shrinks back, my soul has no pleasure in him.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Hebrews 11:16</t>
+          <t>Hebrews 10:39</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>But as it is, they desire a better country, that is, a heavenly one. Therefore God is not ashamed to be called their God, for he has prepared for them a city.</t>
+          <t>But we are not of those who shrink back and are destroyed, but of those who have faith and preserve their souls. By Faith</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Hebrews 11:17</t>
+          <t>Hebrews 11:1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>By faith Abraham, when he was tested, offered up Isaac, and he who had received the promises was in the act of offering up his only son,</t>
+          <t>Now faith is the assurance of things hoped for, the conviction of e things not seen.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Hebrews 11:18</t>
+          <t>Hebrews 11:2</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>of whom it was said, Through Isaac shall your offspring be named.</t>
+          <t>For by it the people of old received their commendation.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Hebrews 11:20</t>
+          <t>Hebrews 11:3</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>By faith Isaac invoked future blessings on Jacob and Esau.</t>
+          <t>By faith we understand that the universe was created by f the word of God, so that what is seen was not made out of g things that are visible.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Hebrews 11:21</t>
+          <t>Hebrews 11:4</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>By faith Jacob, when dying, blessed each of the sons of Joseph, bowing in worship over the head of his staff.</t>
+          <t>By faith h Abel offered to God i a more acceptable sacrifice than Cain, through which he was commended as righteous, God commending him by accepting his gifts. And j through his faith, though he died, he k still speaks.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Hebrews 11:22</t>
+          <t>Hebrews 11:5</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>By faith Joseph, at the end of his life, made mention of the exodus of the Israelites and gave directions concerning his bones.</t>
+          <t>By faith l Enoch was taken up so that he should not see death, and he was not found, because God had taken him. Now before he was taken he was commended as having pleased God.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Hebrews 11:23</t>
+          <t>Hebrews 11:6</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>By faith Moses, when he was born, was hidden for three months by his parents, because they saw that the child was beautiful, and they were not afraid of the king's edict.</t>
+          <t>And without faith it is impossible to please him, for whoever would draw near to God m must believe that he exists and m that he rewards those who seek him.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Hebrews 11:24</t>
+          <t>Hebrews 11:7</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>By faith Moses, when he was grown up, refused to be called the son of Pharaoh's daughter,</t>
+          <t>By faith n Noah, being warned by God concerning o events as yet unseen, in reverent fear constructed an ark for the saving of his household. By this he condemned the world and became an heir of p the righteousness that comes by faith.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Hebrews 11:27</t>
+          <t>Hebrews 11:8</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>By faith he left Egypt, not being afraid of the anger of the king, for he endured as seeing him who is invisible.</t>
+          <t>By faith q Abraham obeyed when he was called to go out to a place r that he was to receive as an inheritance. And he went out, not knowing where he was going.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Hebrews 11:28</t>
+          <t>Hebrews 11:9</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>By faith he kept the Passover and sprinkled the blood, so that the Destroyer of the firstborn might not touch them.</t>
+          <t>By faith he went to live in s the land of promise, as in a foreign land, t living in tents u with Isaac and Jacob, heirs with him of the same promise.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Hebrews 11:29</t>
+          <t>Hebrews 11:10</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>By faith the people crossed the Red Sea as on dry land, but the Egyptians, when they attempted to do the same, were drowned.</t>
+          <t>For he was looking forward to v the city that has w foundations, x whose designer and builder is God.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Hebrews 11:30</t>
+          <t>Hebrews 11:11</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>By faith the walls of Jericho fell down after they had been encircled for seven days.</t>
+          <t>By faith y Sarah herself received power to conceive, even when she was past the age, since she considered z him faithful who had promised.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Hebrews 11:31</t>
+          <t>Hebrews 11:12</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>By faith Rahab the prostitute did not perish with those who were disobedient, because she had given a friendly welcome to the spies.</t>
+          <t>Therefore from one man, and a him as good as dead, were born descendants b as many as the stars of heaven and as many as the innumerable grains of sand by the seashore.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Hebrews 11:32</t>
+          <t>Hebrews 11:13</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>And what more shall I say For time would fail me to tell of Gideon, Barak, Samson, Jephthah, of David and Samuel and the prophet16 s16</t>
+          <t>These all died in faith, c not having received the things promised, but d having seen them and greeted them from afar, and e having acknowledged that they were f strangers and exiles on the earth.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Hebrews 11:33</t>
+          <t>Hebrews 11:14</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>who through faith conquered kingdoms, enforced justice, obtained promises, stopped the mouths of lions,</t>
+          <t>For people who speak thus make it clear that they are seeking a homeland.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Hebrews 11:36</t>
+          <t>Hebrews 11:15</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Others suffered mocking and flogging, and even chains and imprisonment.</t>
+          <t>If they had been thinking of that land from which they had gone out, g they would have had opportunity to return.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Hebrews 11:38</t>
+          <t>Hebrews 11:16</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>of whom the world was not worth16 y wandering about in deserts and mountains, and in dens and caves of the earth.</t>
+          <t>But as it is, they desire a better country, that is, a heavenly one. Therefore God is not ashamed h to be called their God, for i he has prepared for them a city.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Hebrews 11:39</t>
+          <t>Hebrews 11:17</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>And all these, though commended through their faith, did not receive what was promised,</t>
+          <t>By faith j Abraham, when he was tested, offered up Isaac, and he who had received the promises was in the act of offering up his only son,</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Hebrews 11:40</t>
+          <t>Hebrews 11:18</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>since God had provided something better for us, that apart from us they should not be made perfect. Jesus, Founder and Perfecter of Our Faith</t>
+          <t>of whom it was said, k Through Isaac shall your offspring be named.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Hebrews 12:1</t>
+          <t>Hebrews 11:19</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Therefore, since we are surrounded by so great a cloud of witnesses, let us also lay aside every weight, and sin which clings so closely, and let us run with endurance the race that is set before us, 2</t>
+          <t>l He considered that God was able even to raise him from the dead, from which, figuratively speaking, he did receive him back.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Hebrews 12:2</t>
+          <t>Hebrews 11:20</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>looking to Jesus, the founder and perfecter of our faith, who for the joy that was set before him endured the cross, despising the shame, and is seated at the right hand of the throne of God. Do Not Grow Weary 3</t>
+          <t>By faith m Isaac invoked future blessings on Jacob and Esau.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Hebrews 12:4</t>
+          <t>Hebrews 11:21</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>In your struggle against sin you have not yet resisted to the point of shedding your blood. 5</t>
+          <t>By faith n Jacob, when dying, blessed each of the sons of Joseph, o bowing in worship over the head of his staff.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Hebrews 12:5</t>
+          <t>Hebrews 11:22</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>And have you forgotten the exhortation that addresses you as sons - My son, do not regard lightly the discipline of the Lord, - nor be weary when reproved by him. -</t>
+          <t>By faith p Joseph, at the end of his life, made mention of the exodus of the Israelites and gave directions concerning his bones.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Hebrews 12:6</t>
+          <t>Hebrews 11:23</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>For the Lord disciplines the one he loves, - and chastises every son whom he receives. 7</t>
+          <t>By faith q Moses, when he was born, was hidden for three months by his parents, because they saw that the child was beautiful, and they were not afraid of r the king s edict.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Hebrews 12:7</t>
+          <t>Hebrews 11:24</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>It is for discipline that you have to endure. God is treating you as sons. For what son is there whom his father does not discipline 8</t>
+          <t>By faith Moses, when he was grown up, s refused to be called the son of Pharaoh s daughter,</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Hebrews 12:8</t>
+          <t>Hebrews 11:25</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>If you are left without discipline, in which all have participated, then you are illegitimate children and not sons. 9</t>
+          <t>t choosing rather to be mistreated with the people of God than to enjoy u the fleeting pleasures of sin.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Hebrews 12:9</t>
+          <t>Hebrews 11:26</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Besides this, we have had earthly fathers who disciplined us and we respected them. Shall we not much more be subject to the Father of spirits and live</t>
+          <t>v He considered the reproach of Christ greater wealth than the treasures of Egypt, for he was looking to w the reward.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Hebrews 12:10</t>
+          <t>Hebrews 11:27</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>For they disciplined us for a short time as it seemed best to them, but he disciplines us for our good, that we may share his holiness.</t>
+          <t>By faith he x left Egypt, y not being afraid of the anger of the king, for he endured z as seeing him who is invisible.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Hebrews 12:12</t>
+          <t>Hebrews 11:28</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Therefore lift your drooping hands and strengthen your weak knees,</t>
+          <t>By faith a he kept the Passover and sprinkled the blood, so that the Destroyer of the firstborn might not touch them.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Hebrews 12:13</t>
+          <t>Hebrews 11:29</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>and make straight paths for your feet, so that what is lame may not be put out of joint but rather be healed.</t>
+          <t>By faith b the people crossed the Red Sea as on dry land, but the Egyptians, when they attempted to do the same, were drowned.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Hebrews 12:15</t>
+          <t>Hebrews 11:30</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>See to it that no one fails to obtain the grace of God; that no root of bitterness springs up and causes trouble, and by it many become defiled;</t>
+          <t>By faith c the walls of Jericho fell down after they had been encircled for seven days.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Hebrews 12:16</t>
+          <t>Hebrews 11:31</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>that no one is sexually immoral or unholy like Esau, who sold his birthright for a single meal.</t>
+          <t>By faith d Rahab the prostitute did not perish with those who were disobedient, because she e had given a friendly welcome to the spies.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Hebrews 12:17</t>
+          <t>Hebrews 11:32</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>For you know that afterward, when he desired to inherit the blessing, he was rejected, for he found no chance to repent, though he sought it with tears. A Kingdom That Cannot Be Shaken</t>
+          <t>And what more shall I say? For time would fail me to tell of f Gideon, g Barak, h Samson, i Jephthah, of j David and k Samuel and the prophet s</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Hebrews 12:18</t>
+          <t>Hebrews 11:33</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>For you have not come to what may be touched, a blazing fire and darkness and gloom and a tempest</t>
+          <t>who through faith conquered kingdoms, enforced justice, obtained promises, l stopped the mouths of lions,</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Hebrews 12:19</t>
+          <t>Hebrews 11:34</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>and the sound of a trumpet and a voice whose words made the hearers beg that no further messages be spoken to them.</t>
+          <t>m quenched the power of fire, escaped the edge of the sword, were made strong out of weakness, n became mighty in war, n put foreign armies to flight.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Hebrews 12:20</t>
+          <t>Hebrews 11:35</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>For they could not endure the order that was given, If even a beast touches the mountain, it shall be stoned.</t>
+          <t>o Women received back their dead by resurrection. Some were tortured, refusing to accept release, so that they might rise again to a better life.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Hebrews 12:21</t>
+          <t>Hebrews 11:36</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Indeed, so terrifying was the sight that Moses said, I tremble with fear.</t>
+          <t>Others suffered mocking and flogging, and even p chains and imprisonment.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Hebrews 12:22</t>
+          <t>Hebrews 11:37</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>But you have come to Mount Zion and to the city of the living God, the heavenly Jerusalem, and to innumerable angels in festal gathering,</t>
+          <t>q They were stoned, they were sawn in two,</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Hebrews 12:23</t>
+          <t>Hebrews 11:38</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>and to the assembl16 y of the firstborn who are enrolled in heaven, and to God, the judge of all, and to the spirits of the righteous made perfect,</t>
+          <t>r they were killed with the sword. s They went about in skins of sheep and goats, destitute, afflicted, mistreate d</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Hebrews 12:24</t>
+          <t>Hebrews 11:38</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>and to Jesus, the mediator of a new cov173 enant, and to the sprinkled blood that speaks a better word than the blood of Abel.</t>
+          <t>of whom the world was not worth y t wandering about in deserts and mountains, and in dens and caves of the earth.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Hebrews 12:25</t>
+          <t>Hebrews 11:39</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>See that you do not refuse him who is speaking. For if they did not escape when they refused him who warned them on earth, much less will we escape if we reject him who warns from heaven.</t>
+          <t>And all these, u though commended through their faith, u did not receive what was promised,</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Hebrews 12:26</t>
+          <t>Hebrews 11:40</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>At that time his voice shook the earth, but now he has promised, Yet once more I will shake not only the earth but also the heavens.</t>
+          <t>since God had provided something better for us, v that apart from us they should not be made perfect. Jesus, Founder and Perfecter of Our Faith</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Hebrews 12:27</t>
+          <t>Hebrews 12:1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>This phrase, Yet once more, indicates the removal of things that are shake16 n that is, things that have been mad16 e in order that the things that cannot be shaken may remain.</t>
+          <t>Therefore, since we are surrounded by so great a cloud of witnesses, let us also lay aside every weight, and w sin which clings so closely, and x let us run y with endurance the race that is z set before us,</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Hebrews 12:28</t>
+          <t>Hebrews 12:2</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Therefore let us be grateful for receiving a kingdom that cannot be shaken, and thus let us offer to God acceptable worship, with reverence and awe,</t>
+          <t>looking to Jesus, the founder and perfecter of our faith, a who for the joy that was set before him endured the cross, despising b the shame, and c is seated at the right hand of the throne of God. Do Not Grow Weary</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Hebrews 12:29</t>
+          <t>Hebrews 12:3</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>for our God is a consuming fire. Sacrifices Pleasing to God</t>
+          <t>d Consider him who endured from sinners such hostility against himself, so that you may not grow weary or e fainthearted.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Hebrews 13:1</t>
+          <t>Hebrews 12:4</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Let brotherly love continue. 2</t>
+          <t>In your struggle against sin you have not yet resisted to the point of shedding your blood.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Hebrews 13:5</t>
+          <t>Hebrews 12:5</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Keep your life free from love of money, and be content with what you have, for he has said, I will never leave you nor forsake you. 6</t>
+          <t>And have you forgotten the exhortation that addresses you as sons? f My son, g do not regard lightly the discipline of the Lord, nor be weary when reproved by him.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Hebrews 13:6</t>
+          <t>Hebrews 12:6</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>So we can confidently say, - The Lord is my helper; - I will not fear; - what can man do to me 7</t>
+          <t>For h the Lord disciplines the one he loves, and chastises every son whom he receives.</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Hebrews 13:7</t>
+          <t>Hebrews 12:7</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Remember your leaders, those who spoke to you the word of God. Consider the outcome of their way of life, and imitate their faith. 8</t>
+          <t>It is for discipline that you have to endure. i God is treating you as sons. For what son is there whom his father does not discipline?</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Hebrews 13:8</t>
+          <t>Hebrews 12:8</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Jesus Christ is the same yesterday and today and forever. 9</t>
+          <t>If you are left without discipline, j in which all have participated, then you are illegitimate children and not sons.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Hebrews 13:9</t>
+          <t>Hebrews 12:9</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Do not be led away by diverse and strange teachings, for it is good for the heart to be strengthened by grace, not by foods, which have not benefited those devoted to them.</t>
+          <t>Besides this, we have had earthly fathers who disciplined us and we respected them. Shall we not much more be subject to k the Father of spirits l and live?</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Hebrews 13:10</t>
+          <t>Hebrews 12:10</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>We have an altar from which those who serve the ten16 t have no right to eat.</t>
+          <t>For they disciplined us for a short time as it seemed best to them, but he disciplines us for our good, m that we may share his holiness.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Hebrews 13:11</t>
+          <t>Hebrews 12:11</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>For the bodies of those animals whose blood is brought into the holy places by the high priest as a sacrifice for sin are burned outside the camp.</t>
+          <t>n For the moment all discipline seems painful rather than pleasant, but later it yields o the peaceful fruit of righteousness to those who have been trained by it.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Hebrews 13:12</t>
+          <t>Hebrews 12:12</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>So Jesus also suffered outside the gate in order to sanctify the people through his own blood.</t>
+          <t>Therefore p lift your drooping hands and strengthen your weak knees,</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Hebrews 13:13</t>
+          <t>Hebrews 12:13</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Therefore let us go to him outside the camp and bear the reproach he endured.</t>
+          <t>and q make straight paths for your feet, so that what is lame may not be put out of joint r but rather be healed.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Hebrews 13:14</t>
+          <t>Hebrews 12:14</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>For here we have no lasting city, but we seek the city that is to come.</t>
+          <t>s Strive for peace with everyone, and for the t holiness u without which no one will see the Lord.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Hebrews 13:16</t>
+          <t>Hebrews 12:15</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Do not neglect to do good and to share what you have, for such sacrifices are pleasing to God.</t>
+          <t>See to it that no one v fails to obtain the grace of God; that no w root of bitterness springs up and causes trouble, and by it many become defiled;</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Hebrews 13:17</t>
+          <t>Hebrews 12:16</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Obey your leaders and submit to them, for they are keeping watch over your souls, as those who will have to give an account. Let them do this with joy and not with groaning, for that would be of no advantage to you.</t>
+          <t>that no one is x sexually immoral or unholy like Esau, who sold his birthright for a single meal.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Hebrews 13:19</t>
+          <t>Hebrews 12:17</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>I urge you the more earnestly to do this in order that I may be restored to you the sooner. Benediction</t>
+          <t>For you know that y afterward, when he desired to inherit the blessing, he was rejected, for he found no chance to repent, though he sought it with tears. A Kingdom That Cannot Be Shaken</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Hebrews 13:20</t>
+          <t>Hebrews 12:18</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Now may the God of peace who brought again from the dead our Lord Jesus, the great shepherd of the sheep, by the blood of the eternal cov173 enant,</t>
+          <t>For you have not come to z what may be touched, a blazing fire and darkness and gloom and a tempest</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Hebrews 13:22</t>
+          <t>Hebrews 12:19</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>I ppeal to you, brothers, bear with my word of exhortation, for I have written to you briefly.</t>
+          <t>and a the sound of a trumpet and a voice whose words b made the hearers beg that no further messages be spoken to them.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Hebrews 13:23</t>
+          <t>Hebrews 12:20</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>You should know that our brother Timothy has been released, with whom I shall see you if he comes soon.</t>
+          <t>For they could not endure the order that was given, c If even a beast touches the mountain, it shall be stoned.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
+          <t>Hebrews 12:21</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Indeed, d so terrifying was the sight that Moses said, I tremble with fear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Hebrews 12:22</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>But you have come to e Mount Zion and to the city of the living God, f the heavenly Jerusalem, and to g innumerable angels in festal gathering,</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Hebrews 12:23</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>and to h the assembl y of the firstborn who are i enrolled in heaven, and to j God, the judge of all, and to the spirits of the righteous made perfect,</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hebrews 12:24</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>and to Jesus, k the mediator of a new cov?enant, and to l the sprinkled blood m that speaks a better word than the blood of Abel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Hebrews 12:25</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>See that you do not refuse him who is speaking. For n if they did not escape when they refused him who warned them on earth, much less will we escape if we reject him who warns from heaven.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hebrews 12:26</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>At that time o his voice shook the earth, but now he has promised, p Yet once more I will shake not only the earth but also the heavens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hebrews 12:27</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>This phrase, Yet once more, indicates q the removal of things that are shake n that is, things that have been made in order that the things that cannot be shaken may remain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hebrews 12:28</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Therefore let us be grateful for receiving r a kingdom that cannot be shaken, and thus s let us offer to God acceptable worship, with reverence and awe,</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Hebrews 12:29</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>for our t God is a consuming fire. Sacrifices Pleasing to God</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Hebrews 13:1</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Let u brotherly love continue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Hebrews 13:2</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>v Do not neglect to show hospitality to strangers, for thereby w some have entertained angels unawares.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hebrews 13:3</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>x Remember those who are in prison, as though in prison with them, and those who are mistreated, since you also are in the body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hebrews 13:4</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>y Let marriage be held in honor among all, and let the marriage bed be undefiled, for God will judge z the sexually immoral and adulterous.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hebrews 13:5</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Keep your life a free from love of money, and b be content with what you have, for he has said, c I will never leave you nor forsake you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Hebrews 13:6</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>So we can confidently say, d The Lord is my helper; e I will not fear; what can man do to me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hebrews 13:7</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Remember f your leaders, those who spoke to you the word of God. Consider the outcome of their way of life, and g imitate their faith.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Hebrews 13:8</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Jesus Christ is h the same yesterday and today and forever.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Hebrews 13:9</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Do not be i led away by diverse and strange teachings, for it is good for the heart to be strengthened by grace, j not by foods, which have not benefited those devoted to them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Hebrews 13:10</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>We have an altar k from which those who serve the ten t have no right to eat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Hebrews 13:11</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>For l the bodies of those animals whose blood is brought into the holy places by the high priest as a sacrifice for sin are burned m outside the camp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Hebrews 13:12</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>So Jesus also n suffered o outside the gate in order to sanctify the people p through his own blood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hebrews 13:13</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Therefore let us go to him outside the camp and bear q the reproach he endured.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hebrews 13:14</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>For r here we have no lasting city, but we seek the city that is to come.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Hebrews 13:15</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>s Through him then let us continually offer up t a sacrifice of praise to God, that is, u the fruit of lips that acknowledge his name.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Hebrews 13:16</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Do not neglect to do good and v to share what you have, for such w sacrifices are pleasing to God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Hebrews 13:17</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Obey x your leaders and submit to them, y for they are keeping watch over your souls, as those who will have to z give an account. a Let them do this with joy and not with groaning, for that would be of no advantage to you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hebrews 13:18</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>b Pray for us, for we are sure that we have a clear conscience, desiring to act honorably in all things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Hebrews 13:19</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>I urge you the more earnestly to do this in order c that I may be restored to you the sooner. Benediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Hebrews 13:20</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Now d may the God of peace e who brought again from the dead our Lord Jesus, f the great shepherd of the sheep, by g the blood of the eternal cov?enant,</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Hebrews 13:21</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>h equip you with everything good that you may do his will, i working in u s that which is pleasing in his sight, through Jesus Christ, j to whom be glory forever and ever. Amen. Final Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Hebrews 13:22</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>I appeal to you, brothers, bear with my word of exhortation, for k I have written to you briefly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Hebrews 13:23</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>You should know that l our brother Timothy has been released, with whom I shall see you if he comes soon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
           <t>Hebrews 13:24</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Greet all your leaders and all the saints. Those who come from Italy send you greetings.</t>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Greet all m your leaders and all the saints. Those who come from Italy send you greetings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Hebrews 13:25</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>n Grace be with all of you.</t>
         </is>
       </c>
     </row>
